--- a/timetable_scheduler/data_structures/data/distances.xlsx
+++ b/timetable_scheduler/data_structures/data/distances.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumenty\studia\Semestr 5\Badania operacyjne 2\timetable-scheduler\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumenty\studia\Semestr 5\Badania operacyjne 2\timetable-scheduler\timetable_scheduler\data_structures\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393ADBB8-7EA0-48C3-95EF-7ECE4C6964A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18A0F38-CFAE-4430-8A7C-062C2EE4789A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3B0C2357-DB74-4515-BD2E-E45571091DBA}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>B1</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>SWIS</t>
+  </si>
+  <si>
+    <t>U2</t>
   </si>
 </sst>
 </file>
@@ -421,15 +424,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108F8210-F3CB-487F-B2A0-7A7400CEA034}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -466,8 +469,11 @@
       <c r="M1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -507,8 +513,11 @@
       <c r="M2" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -548,8 +557,11 @@
       <c r="M3" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -589,8 +601,11 @@
       <c r="M4" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -630,8 +645,11 @@
       <c r="M5" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N5" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -671,8 +689,11 @@
       <c r="M6" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -712,8 +733,11 @@
       <c r="M7" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N7" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -753,8 +777,11 @@
       <c r="M8" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -794,8 +821,11 @@
       <c r="M9" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N9" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -835,8 +865,11 @@
       <c r="M10" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -876,8 +909,11 @@
       <c r="M11" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -917,8 +953,11 @@
       <c r="M12" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N12" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -956,6 +995,53 @@
         <v>18</v>
       </c>
       <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1">
+        <v>9</v>
+      </c>
+      <c r="E14" s="1">
+        <v>7</v>
+      </c>
+      <c r="F14" s="1">
+        <v>7</v>
+      </c>
+      <c r="G14" s="1">
+        <v>7</v>
+      </c>
+      <c r="H14" s="1">
+        <v>3</v>
+      </c>
+      <c r="I14" s="1">
+        <v>6</v>
+      </c>
+      <c r="J14" s="1">
+        <v>12</v>
+      </c>
+      <c r="K14" s="1">
+        <v>11</v>
+      </c>
+      <c r="L14" s="1">
+        <v>21</v>
+      </c>
+      <c r="M14" s="1">
+        <v>28</v>
+      </c>
+      <c r="N14">
         <v>0</v>
       </c>
     </row>

--- a/timetable_scheduler/data_structures/data/distances.xlsx
+++ b/timetable_scheduler/data_structures/data/distances.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumenty\studia\Semestr 5\Badania operacyjne 2\timetable-scheduler\timetable_scheduler\data_structures\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.semestr 5\BO2\timetable-scheduler\timetable_scheduler\data_structures\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18A0F38-CFAE-4430-8A7C-062C2EE4789A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1607C8-3030-4945-89A0-88EEE3189823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3B0C2357-DB74-4515-BD2E-E45571091DBA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3B0C2357-DB74-4515-BD2E-E45571091DBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -67,10 +67,10 @@
     <t>D13</t>
   </si>
   <si>
-    <t>SWIS</t>
-  </si>
-  <si>
     <t>U2</t>
+  </si>
+  <si>
+    <t>SWFIS</t>
   </si>
 </sst>
 </file>
@@ -427,12 +427,12 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -467,13 +467,13 @@
         <v>10</v>
       </c>
       <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -517,7 +517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -561,7 +561,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -605,7 +605,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -649,7 +649,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -693,7 +693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -737,7 +737,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -781,7 +781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -825,7 +825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -869,7 +869,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -913,7 +913,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -957,9 +957,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>28</v>
@@ -1001,9 +1001,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1">
         <v>6</v>
